--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -271,15 +271,6 @@
   </x:si>
   <x:si>
     <x:t>Mohanad safwat</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1240382</x:t>
-  </x:si>
-  <x:si>
-    <x:t>ندى أحمد محمد عبد الحليم السيد</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Nada Ahmad Mohamad AbdelHalim</x:t>
   </x:si>
   <x:si>
     <x:t>1240167</x:t>
@@ -404,7 +395,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +695,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T29"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1657,7 +1648,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45912.6004165509</x:v>
+        <x:v>45907.6770493403</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1674,38 +1665,6 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
-    </x:row>
-    <x:row r="30" spans="1:20">
-      <x:c r="A30" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B30" s="2" t="s">
-        <x:v>88</x:v>
-      </x:c>
-      <x:c r="C30" s="2" t="s">
-        <x:v>89</x:v>
-      </x:c>
-      <x:c r="D30" s="2" t="s">
-        <x:v>90</x:v>
-      </x:c>
-      <x:c r="E30" s="3">
-        <x:v>45907.6770493403</x:v>
-      </x:c>
-      <x:c r="F30" s="2" t="s"/>
-      <x:c r="G30" s="2" t="s"/>
-      <x:c r="H30" s="2" t="s"/>
-      <x:c r="I30" s="2" t="s"/>
-      <x:c r="J30" s="2" t="s"/>
-      <x:c r="K30" s="2" t="s"/>
-      <x:c r="L30" s="2" t="s"/>
-      <x:c r="M30" s="2" t="s"/>
-      <x:c r="N30" s="2" t="s"/>
-      <x:c r="O30" s="2" t="s"/>
-      <x:c r="P30" s="2" t="s"/>
-      <x:c r="Q30" s="2" t="s"/>
-      <x:c r="R30" s="2" t="s"/>
-      <x:c r="S30" s="2" t="s"/>
-      <x:c r="T30" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="88">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -201,6 +201,15 @@
     <x:t>Clara Hany Fawzy Swares</x:t>
   </x:si>
   <x:si>
+    <x:t>1240124</x:t>
+  </x:si>
+  <x:si>
+    <x:t>كيرلس اشرف اسحق فوزى</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Kirolos Ashraf Ishak Fawzy</x:t>
+  </x:si>
+  <x:si>
     <x:t>1240351</x:t>
   </x:si>
   <x:si>
@@ -217,6 +226,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Ali Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام الدين محمد احمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -395,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E29" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -695,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T29"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1392,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1424,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1456,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6869237616</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1488,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45922.409609456</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1520,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6869237616</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1552,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1584,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1616,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1648,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6770493403</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1665,6 +1683,70 @@
       <x:c r="R29" s="2" t="s"/>
       <x:c r="S29" s="2" t="s"/>
       <x:c r="T29" s="2" t="s"/>
+    </x:row>
+    <x:row r="30" spans="1:20">
+      <x:c r="A30" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B30" s="2" t="s">
+        <x:v>88</x:v>
+      </x:c>
+      <x:c r="C30" s="2" t="s">
+        <x:v>89</x:v>
+      </x:c>
+      <x:c r="D30" s="2" t="s">
+        <x:v>90</x:v>
+      </x:c>
+      <x:c r="E30" s="3">
+        <x:v>45907.667058831</x:v>
+      </x:c>
+      <x:c r="F30" s="2" t="s"/>
+      <x:c r="G30" s="2" t="s"/>
+      <x:c r="H30" s="2" t="s"/>
+      <x:c r="I30" s="2" t="s"/>
+      <x:c r="J30" s="2" t="s"/>
+      <x:c r="K30" s="2" t="s"/>
+      <x:c r="L30" s="2" t="s"/>
+      <x:c r="M30" s="2" t="s"/>
+      <x:c r="N30" s="2" t="s"/>
+      <x:c r="O30" s="2" t="s"/>
+      <x:c r="P30" s="2" t="s"/>
+      <x:c r="Q30" s="2" t="s"/>
+      <x:c r="R30" s="2" t="s"/>
+      <x:c r="S30" s="2" t="s"/>
+      <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6770493403</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -226,15 +226,6 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Ali Attia</x:t>
-  </x:si>
-  <x:si>
-    <x:t>1230242</x:t>
-  </x:si>
-  <x:si>
-    <x:t>محمد حسام الدين محمد احمد علي</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -413,7 +404,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +704,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T30"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1506,7 +1497,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45922.409609456</x:v>
+        <x:v>45907.6869237616</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1529,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6869237616</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1561,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1593,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1625,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1657,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1689,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6770493403</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1715,38 +1706,6 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
-    </x:row>
-    <x:row r="31" spans="1:20">
-      <x:c r="A31" s="2" t="n">
-        <x:v>0</x:v>
-      </x:c>
-      <x:c r="B31" s="2" t="s">
-        <x:v>91</x:v>
-      </x:c>
-      <x:c r="C31" s="2" t="s">
-        <x:v>92</x:v>
-      </x:c>
-      <x:c r="D31" s="2" t="s">
-        <x:v>93</x:v>
-      </x:c>
-      <x:c r="E31" s="3">
-        <x:v>45907.6770493403</x:v>
-      </x:c>
-      <x:c r="F31" s="2" t="s"/>
-      <x:c r="G31" s="2" t="s"/>
-      <x:c r="H31" s="2" t="s"/>
-      <x:c r="I31" s="2" t="s"/>
-      <x:c r="J31" s="2" t="s"/>
-      <x:c r="K31" s="2" t="s"/>
-      <x:c r="L31" s="2" t="s"/>
-      <x:c r="M31" s="2" t="s"/>
-      <x:c r="N31" s="2" t="s"/>
-      <x:c r="O31" s="2" t="s"/>
-      <x:c r="P31" s="2" t="s"/>
-      <x:c r="Q31" s="2" t="s"/>
-      <x:c r="R31" s="2" t="s"/>
-      <x:c r="S31" s="2" t="s"/>
-      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="91">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -181,6 +181,15 @@
   </x:si>
   <x:si>
     <x:t>Omar EL-syed Mohammed EL-kholy</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1240101</x:t>
+  </x:si>
+  <x:si>
+    <x:t>عمر ايهاب عبدالفتاح عيد</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Omar Ehab</x:t>
   </x:si>
   <x:si>
     <x:t>1240114</x:t>
@@ -404,7 +413,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E30" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -704,7 +713,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T30"/>
+  <x:dimension ref="A1:T31"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -1337,7 +1346,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1369,7 +1378,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1401,7 +1410,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1433,7 +1442,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1465,7 +1474,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1497,7 +1506,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6869237616</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1529,7 +1538,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6869237616</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1561,7 +1570,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1593,7 +1602,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1625,7 +1634,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1657,7 +1666,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1689,7 +1698,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.6770493403</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1706,6 +1715,38 @@
       <x:c r="R30" s="2" t="s"/>
       <x:c r="S30" s="2" t="s"/>
       <x:c r="T30" s="2" t="s"/>
+    </x:row>
+    <x:row r="31" spans="1:20">
+      <x:c r="A31" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B31" s="2" t="s">
+        <x:v>91</x:v>
+      </x:c>
+      <x:c r="C31" s="2" t="s">
+        <x:v>92</x:v>
+      </x:c>
+      <x:c r="D31" s="2" t="s">
+        <x:v>93</x:v>
+      </x:c>
+      <x:c r="E31" s="3">
+        <x:v>45907.6770493403</x:v>
+      </x:c>
+      <x:c r="F31" s="2" t="s"/>
+      <x:c r="G31" s="2" t="s"/>
+      <x:c r="H31" s="2" t="s"/>
+      <x:c r="I31" s="2" t="s"/>
+      <x:c r="J31" s="2" t="s"/>
+      <x:c r="K31" s="2" t="s"/>
+      <x:c r="L31" s="2" t="s"/>
+      <x:c r="M31" s="2" t="s"/>
+      <x:c r="N31" s="2" t="s"/>
+      <x:c r="O31" s="2" t="s"/>
+      <x:c r="P31" s="2" t="s"/>
+      <x:c r="Q31" s="2" t="s"/>
+      <x:c r="R31" s="2" t="s"/>
+      <x:c r="S31" s="2" t="s"/>
+      <x:c r="T31" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="94">
+<x:sst xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="97">
   <x:si>
     <x:t>Seat No.</x:t>
   </x:si>
@@ -76,6 +76,15 @@
   </x:si>
   <x:si>
     <x:t>Amin Hatem Ali Mohamed</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230313</x:t>
+  </x:si>
+  <x:si>
+    <x:t>بسمه يحيي العدوي علي شوشه</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Basma yahia eladwey</x:t>
   </x:si>
   <x:si>
     <x:t>1240295</x:t>
@@ -413,7 +422,7 @@
 </file>
 
 <file path=xl/tables/table.xml><?xml version="1.0" encoding="utf-8"?>
-<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E31" totalsRowShown="0">
+<x:table xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:E32" totalsRowShown="0">
   <x:tableColumns count="5">
     <x:tableColumn id="1" name="Seat No."/>
     <x:tableColumn id="2" name="Code"/>
@@ -713,7 +722,7 @@
   <x:sheetPr>
     <x:outlinePr summaryBelow="1" summaryRight="1"/>
   </x:sheetPr>
-  <x:dimension ref="A1:T31"/>
+  <x:dimension ref="A1:T32"/>
   <x:sheetViews>
     <x:sheetView workbookViewId="0"/>
   </x:sheetViews>
@@ -964,7 +973,7 @@
         <x:v>22</x:v>
       </x:c>
       <x:c r="E7" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45928.9788960648</x:v>
       </x:c>
       <x:c r="F7" s="2" t="s"/>
       <x:c r="G7" s="2" t="s"/>
@@ -996,7 +1005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45915.9704462153</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1028,7 +1037,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1060,7 +1069,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1092,7 +1101,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45909.7403854977</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1124,7 +1133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45909.7403854977</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1156,7 +1165,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45912.5977506597</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1188,7 +1197,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45912.5977506597</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1220,7 +1229,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1248,9 +1257,11 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s"/>
+      <x:c r="D16" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
       <x:c r="E16" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1273,16 +1284,14 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
-        <x:v>49</x:v>
+        <x:v>50</x:v>
       </x:c>
       <x:c r="C17" s="2" t="s">
-        <x:v>50</x:v>
-      </x:c>
-      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
+      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45912.5984565625</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1314,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45912.5984565625</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1346,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45927.414653588</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1378,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1410,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1442,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1474,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1506,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1538,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6869237616</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
@@ -1570,7 +1579,7 @@
         <x:v>78</x:v>
       </x:c>
       <x:c r="E26" s="3">
-        <x:v>45907.6651833681</x:v>
+        <x:v>45907.6869237616</x:v>
       </x:c>
       <x:c r="F26" s="2" t="s"/>
       <x:c r="G26" s="2" t="s"/>
@@ -1602,7 +1611,7 @@
         <x:v>81</x:v>
       </x:c>
       <x:c r="E27" s="3">
-        <x:v>45907.6658451389</x:v>
+        <x:v>45907.6651833681</x:v>
       </x:c>
       <x:c r="F27" s="2" t="s"/>
       <x:c r="G27" s="2" t="s"/>
@@ -1634,7 +1643,7 @@
         <x:v>84</x:v>
       </x:c>
       <x:c r="E28" s="3">
-        <x:v>45907.6658153935</x:v>
+        <x:v>45907.6658451389</x:v>
       </x:c>
       <x:c r="F28" s="2" t="s"/>
       <x:c r="G28" s="2" t="s"/>
@@ -1666,7 +1675,7 @@
         <x:v>87</x:v>
       </x:c>
       <x:c r="E29" s="3">
-        <x:v>45907.6750537384</x:v>
+        <x:v>45907.6658153935</x:v>
       </x:c>
       <x:c r="F29" s="2" t="s"/>
       <x:c r="G29" s="2" t="s"/>
@@ -1698,7 +1707,7 @@
         <x:v>90</x:v>
       </x:c>
       <x:c r="E30" s="3">
-        <x:v>45907.667058831</x:v>
+        <x:v>45907.6750537384</x:v>
       </x:c>
       <x:c r="F30" s="2" t="s"/>
       <x:c r="G30" s="2" t="s"/>
@@ -1730,7 +1739,7 @@
         <x:v>93</x:v>
       </x:c>
       <x:c r="E31" s="3">
-        <x:v>45907.6770493403</x:v>
+        <x:v>45907.667058831</x:v>
       </x:c>
       <x:c r="F31" s="2" t="s"/>
       <x:c r="G31" s="2" t="s"/>
@@ -1747,6 +1756,38 @@
       <x:c r="R31" s="2" t="s"/>
       <x:c r="S31" s="2" t="s"/>
       <x:c r="T31" s="2" t="s"/>
+    </x:row>
+    <x:row r="32" spans="1:20">
+      <x:c r="A32" s="2" t="n">
+        <x:v>0</x:v>
+      </x:c>
+      <x:c r="B32" s="2" t="s">
+        <x:v>94</x:v>
+      </x:c>
+      <x:c r="C32" s="2" t="s">
+        <x:v>95</x:v>
+      </x:c>
+      <x:c r="D32" s="2" t="s">
+        <x:v>96</x:v>
+      </x:c>
+      <x:c r="E32" s="3">
+        <x:v>45907.6770493403</x:v>
+      </x:c>
+      <x:c r="F32" s="2" t="s"/>
+      <x:c r="G32" s="2" t="s"/>
+      <x:c r="H32" s="2" t="s"/>
+      <x:c r="I32" s="2" t="s"/>
+      <x:c r="J32" s="2" t="s"/>
+      <x:c r="K32" s="2" t="s"/>
+      <x:c r="L32" s="2" t="s"/>
+      <x:c r="M32" s="2" t="s"/>
+      <x:c r="N32" s="2" t="s"/>
+      <x:c r="O32" s="2" t="s"/>
+      <x:c r="P32" s="2" t="s"/>
+      <x:c r="Q32" s="2" t="s"/>
+      <x:c r="R32" s="2" t="s"/>
+      <x:c r="S32" s="2" t="s"/>
+      <x:c r="T32" s="2" t="s"/>
     </x:row>
   </x:sheetData>
   <x:printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0"/>

--- a/downloaded_files/CMPS101_Tutorial-35444.xlsx
+++ b/downloaded_files/CMPS101_Tutorial-35444.xlsx
@@ -87,15 +87,6 @@
     <x:t>Basma yahia eladwey</x:t>
   </x:si>
   <x:si>
-    <x:t>1240295</x:t>
-  </x:si>
-  <x:si>
-    <x:t>جنى طارق عبد اللطيف محمد خطيب</x:t>
-  </x:si>
-  <x:si>
-    <x:t>Jana Tarek Abdellatif Mohamed Khatib</x:t>
-  </x:si>
-  <x:si>
     <x:t>1240048</x:t>
   </x:si>
   <x:si>
@@ -244,6 +235,15 @@
   </x:si>
   <x:si>
     <x:t>Mohamed Hazem Ali Attia</x:t>
+  </x:si>
+  <x:si>
+    <x:t>1230242</x:t>
+  </x:si>
+  <x:si>
+    <x:t>محمد حسام الدين محمد احمد علي</x:t>
+  </x:si>
+  <x:si>
+    <x:t>Mohammad Hossam Eldin Mohammad Ahmed Ali</x:t>
   </x:si>
   <x:si>
     <x:t>1240182</x:t>
@@ -1005,7 +1005,7 @@
         <x:v>25</x:v>
       </x:c>
       <x:c r="E8" s="3">
-        <x:v>45915.9704462153</x:v>
+        <x:v>45907.6674490741</x:v>
       </x:c>
       <x:c r="F8" s="2" t="s"/>
       <x:c r="G8" s="2" t="s"/>
@@ -1037,7 +1037,7 @@
         <x:v>28</x:v>
       </x:c>
       <x:c r="E9" s="3">
-        <x:v>45907.6674490741</x:v>
+        <x:v>45907.6648021991</x:v>
       </x:c>
       <x:c r="F9" s="2" t="s"/>
       <x:c r="G9" s="2" t="s"/>
@@ -1069,7 +1069,7 @@
         <x:v>31</x:v>
       </x:c>
       <x:c r="E10" s="3">
-        <x:v>45907.6648021991</x:v>
+        <x:v>45907.6655696412</x:v>
       </x:c>
       <x:c r="F10" s="2" t="s"/>
       <x:c r="G10" s="2" t="s"/>
@@ -1101,7 +1101,7 @@
         <x:v>34</x:v>
       </x:c>
       <x:c r="E11" s="3">
-        <x:v>45907.6655696412</x:v>
+        <x:v>45909.7403854977</x:v>
       </x:c>
       <x:c r="F11" s="2" t="s"/>
       <x:c r="G11" s="2" t="s"/>
@@ -1133,7 +1133,7 @@
         <x:v>37</x:v>
       </x:c>
       <x:c r="E12" s="3">
-        <x:v>45909.7403854977</x:v>
+        <x:v>45907.6673702546</x:v>
       </x:c>
       <x:c r="F12" s="2" t="s"/>
       <x:c r="G12" s="2" t="s"/>
@@ -1165,7 +1165,7 @@
         <x:v>40</x:v>
       </x:c>
       <x:c r="E13" s="3">
-        <x:v>45907.6673702546</x:v>
+        <x:v>45912.5977506597</x:v>
       </x:c>
       <x:c r="F13" s="2" t="s"/>
       <x:c r="G13" s="2" t="s"/>
@@ -1197,7 +1197,7 @@
         <x:v>43</x:v>
       </x:c>
       <x:c r="E14" s="3">
-        <x:v>45912.5977506597</x:v>
+        <x:v>45907.6648109143</x:v>
       </x:c>
       <x:c r="F14" s="2" t="s"/>
       <x:c r="G14" s="2" t="s"/>
@@ -1229,7 +1229,7 @@
         <x:v>46</x:v>
       </x:c>
       <x:c r="E15" s="3">
-        <x:v>45907.6648109143</x:v>
+        <x:v>45915.977841088</x:v>
       </x:c>
       <x:c r="F15" s="2" t="s"/>
       <x:c r="G15" s="2" t="s"/>
@@ -1257,11 +1257,9 @@
       <x:c r="C16" s="2" t="s">
         <x:v>48</x:v>
       </x:c>
-      <x:c r="D16" s="2" t="s">
-        <x:v>49</x:v>
-      </x:c>
+      <x:c r="D16" s="2" t="s"/>
       <x:c r="E16" s="3">
-        <x:v>45915.977841088</x:v>
+        <x:v>45915.9761419329</x:v>
       </x:c>
       <x:c r="F16" s="2" t="s"/>
       <x:c r="G16" s="2" t="s"/>
@@ -1284,14 +1282,16 @@
         <x:v>0</x:v>
       </x:c>
       <x:c r="B17" s="2" t="s">
+        <x:v>49</x:v>
+      </x:c>
+      <x:c r="C17" s="2" t="s">
         <x:v>50</x:v>
       </x:c>
-      <x:c r="C17" s="2" t="s">
+      <x:c r="D17" s="2" t="s">
         <x:v>51</x:v>
       </x:c>
-      <x:c r="D17" s="2" t="s"/>
       <x:c r="E17" s="3">
-        <x:v>45915.9761419329</x:v>
+        <x:v>45912.5984565625</x:v>
       </x:c>
       <x:c r="F17" s="2" t="s"/>
       <x:c r="G17" s="2" t="s"/>
@@ -1323,7 +1323,7 @@
         <x:v>54</x:v>
       </x:c>
       <x:c r="E18" s="3">
-        <x:v>45912.5984565625</x:v>
+        <x:v>45907.6701496875</x:v>
       </x:c>
       <x:c r="F18" s="2" t="s"/>
       <x:c r="G18" s="2" t="s"/>
@@ -1355,7 +1355,7 @@
         <x:v>57</x:v>
       </x:c>
       <x:c r="E19" s="3">
-        <x:v>45907.6701496875</x:v>
+        <x:v>45927.414653588</x:v>
       </x:c>
       <x:c r="F19" s="2" t="s"/>
       <x:c r="G19" s="2" t="s"/>
@@ -1387,7 +1387,7 @@
         <x:v>60</x:v>
       </x:c>
       <x:c r="E20" s="3">
-        <x:v>45927.414653588</x:v>
+        <x:v>45907.6709354167</x:v>
       </x:c>
       <x:c r="F20" s="2" t="s"/>
       <x:c r="G20" s="2" t="s"/>
@@ -1419,7 +1419,7 @@
         <x:v>63</x:v>
       </x:c>
       <x:c r="E21" s="3">
-        <x:v>45907.6709354167</x:v>
+        <x:v>45907.4212085301</x:v>
       </x:c>
       <x:c r="F21" s="2" t="s"/>
       <x:c r="G21" s="2" t="s"/>
@@ -1451,7 +1451,7 @@
         <x:v>66</x:v>
       </x:c>
       <x:c r="E22" s="3">
-        <x:v>45907.4212085301</x:v>
+        <x:v>45922.4747480671</x:v>
       </x:c>
       <x:c r="F22" s="2" t="s"/>
       <x:c r="G22" s="2" t="s"/>
@@ -1483,7 +1483,7 @@
         <x:v>69</x:v>
       </x:c>
       <x:c r="E23" s="3">
-        <x:v>45922.4747480671</x:v>
+        <x:v>45907.6651607639</x:v>
       </x:c>
       <x:c r="F23" s="2" t="s"/>
       <x:c r="G23" s="2" t="s"/>
@@ -1515,7 +1515,7 @@
         <x:v>72</x:v>
       </x:c>
       <x:c r="E24" s="3">
-        <x:v>45907.6651607639</x:v>
+        <x:v>45907.6670702199</x:v>
       </x:c>
       <x:c r="F24" s="2" t="s"/>
       <x:c r="G24" s="2" t="s"/>
@@ -1547,7 +1547,7 @@
         <x:v>75</x:v>
       </x:c>
       <x:c r="E25" s="3">
-        <x:v>45907.6670702199</x:v>
+        <x:v>45924.432622338</x:v>
       </x:c>
       <x:c r="F25" s="2" t="s"/>
       <x:c r="G25" s="2" t="s"/>
